--- a/Lecture 2/Hill Cipher.xlsx
+++ b/Lecture 2/Hill Cipher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyTerm\5-Computer Security\Lectures\Lecture 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-GitHub\Information_security\Lecture 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD5968-06C7-43C2-BB3F-EE84FDD059F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E15D95-4DAB-431D-948F-02F212B59A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Hill Cipher</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Know we Get The Key For Decryption we Will Do The same Steps multiplication in pervious Table</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -332,12 +335,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,26 +353,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,30 +363,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:T60"/>
+  <dimension ref="F1:T73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="L69:M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,670 +682,669 @@
         <v>3</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>8</v>
       </c>
-      <c r="O10" s="10">
-        <v>7</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="O10" s="9">
+        <v>7</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="N11" s="10">
-        <v>11</v>
-      </c>
-      <c r="O11" s="10">
-        <v>11</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="N11" s="9">
+        <v>11</v>
+      </c>
+      <c r="O11" s="9">
+        <v>11</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4"/>
     </row>
     <row r="13" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F13" s="10">
-        <v>11</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9">
         <v>12</v>
       </c>
-      <c r="H13" s="10">
-        <v>23</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="9">
+        <v>23</v>
+      </c>
+      <c r="I13" s="9">
         <v>19</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>14</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>18</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>15</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>4</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>17</v>
       </c>
-      <c r="K14" s="10">
-        <v>7</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="9">
+        <v>7</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="6:19" x14ac:dyDescent="0.35">
-      <c r="R16" s="8"/>
-      <c r="S16" s="8" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="13">
         <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>182</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>8</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="10">
+      <c r="P18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="9">
         <v>8</v>
       </c>
-      <c r="R18" s="10">
-        <v>7</v>
-      </c>
-      <c r="S18" s="22"/>
+      <c r="R18" s="9">
+        <v>7</v>
+      </c>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="13">
         <v>15</v>
       </c>
       <c r="L19" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>275</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>17</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>11</v>
-      </c>
-      <c r="R19" s="10">
-        <v>11</v>
-      </c>
-      <c r="S19" s="22"/>
+      <c r="P19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>11</v>
+      </c>
+      <c r="R19" s="9">
+        <v>11</v>
+      </c>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="22"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="13">
         <v>0</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>234</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="9">
         <v>14</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="10">
+      <c r="P21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="9">
         <v>8</v>
       </c>
-      <c r="R21" s="10">
-        <v>7</v>
-      </c>
-      <c r="S21" s="22"/>
+      <c r="R21" s="9">
+        <v>7</v>
+      </c>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="13">
         <v>3</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>341</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="9">
         <v>17</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>11</v>
-      </c>
-      <c r="R22" s="10">
-        <v>11</v>
-      </c>
-      <c r="S22" s="22"/>
+      <c r="P22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>11</v>
+      </c>
+      <c r="R22" s="9">
+        <v>11</v>
+      </c>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="22"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="13">
         <v>9</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>165</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="9">
         <v>19</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="10">
+      <c r="P24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="9">
         <v>8</v>
       </c>
-      <c r="R24" s="10">
-        <v>7</v>
-      </c>
-      <c r="S24" s="22"/>
+      <c r="R24" s="9">
+        <v>7</v>
+      </c>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="13">
         <v>19</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>253</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="9">
         <v>4</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>11</v>
-      </c>
-      <c r="R25" s="10">
-        <v>11</v>
-      </c>
-      <c r="S25" s="22"/>
+      <c r="P25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>11</v>
+      </c>
+      <c r="R25" s="9">
+        <v>11</v>
+      </c>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="22"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="13">
         <v>5</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>161</v>
       </c>
-      <c r="O27" s="15">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="12">
+      <c r="O27" s="9">
+        <v>23</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="9">
         <v>8</v>
       </c>
-      <c r="R27" s="12">
-        <v>7</v>
-      </c>
-      <c r="S27" s="22"/>
+      <c r="R27" s="9">
+        <v>7</v>
+      </c>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="13">
         <v>19</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>253</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>11</v>
-      </c>
-      <c r="R28" s="12">
-        <v>11</v>
-      </c>
-      <c r="S28" s="22"/>
+      <c r="P28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>11</v>
+      </c>
+      <c r="R28" s="9">
+        <v>11</v>
+      </c>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="22"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="13">
         <v>22</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>204</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="9">
         <v>12</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="13">
+      <c r="P30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="9">
         <v>8</v>
       </c>
-      <c r="R30" s="13">
-        <v>7</v>
-      </c>
-      <c r="S30" s="22"/>
+      <c r="R30" s="9">
+        <v>7</v>
+      </c>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="23">
-        <v>11</v>
-      </c>
-      <c r="L31" s="17" t="s">
+      <c r="K31" s="13">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>297</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="9">
         <v>15</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>11</v>
-      </c>
-      <c r="R31" s="13">
-        <v>11</v>
-      </c>
-      <c r="S31" s="22"/>
+      <c r="P31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>11</v>
+      </c>
+      <c r="R31" s="9">
+        <v>11</v>
+      </c>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="10:19" x14ac:dyDescent="0.35">
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="22"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="13">
         <v>5</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>109</v>
       </c>
-      <c r="O33" s="15">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="15">
+      <c r="O33" s="9">
+        <v>11</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="9">
         <v>8</v>
       </c>
-      <c r="R33" s="15">
-        <v>7</v>
-      </c>
-      <c r="S33" s="22"/>
+      <c r="R33" s="9">
+        <v>7</v>
+      </c>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="13">
         <v>9</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>165</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="9">
         <v>4</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>11</v>
-      </c>
-      <c r="R34" s="15">
-        <v>11</v>
-      </c>
-      <c r="S34" s="22"/>
+      <c r="P34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>11</v>
+      </c>
+      <c r="R34" s="9">
+        <v>11</v>
+      </c>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="22"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="31"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
     </row>
     <row r="37" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I37" s="31"/>
-      <c r="T37" s="31"/>
+      <c r="I37" s="12"/>
+      <c r="T37" s="12"/>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I38" s="31"/>
-      <c r="T38" s="31"/>
+      <c r="I38" s="12"/>
+      <c r="T38" s="12"/>
     </row>
     <row r="39" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I39" s="31"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27" t="s">
+      <c r="I39" s="12"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="T39" s="31"/>
+      <c r="T39" s="12"/>
     </row>
     <row r="40" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I40" s="31"/>
-      <c r="T40" s="31"/>
+      <c r="I40" s="12"/>
+      <c r="T40" s="12"/>
     </row>
     <row r="41" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I41" s="31"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18" t="s">
+      <c r="I41" s="12"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T41" s="31"/>
+      <c r="T41" s="12"/>
     </row>
     <row r="42" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I42" s="31"/>
-      <c r="R42" s="20">
+      <c r="I42" s="12"/>
+      <c r="R42" s="9">
         <v>8</v>
       </c>
-      <c r="S42" s="20">
-        <v>7</v>
-      </c>
-      <c r="T42" s="31"/>
+      <c r="S42" s="9">
+        <v>7</v>
+      </c>
+      <c r="T42" s="12"/>
     </row>
     <row r="43" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I43" s="31"/>
-      <c r="R43" s="20">
-        <v>11</v>
-      </c>
-      <c r="S43" s="20">
-        <v>11</v>
-      </c>
-      <c r="T43" s="31"/>
+      <c r="I43" s="12"/>
+      <c r="R43" s="9">
+        <v>11</v>
+      </c>
+      <c r="S43" s="9">
+        <v>11</v>
+      </c>
+      <c r="T43" s="12"/>
     </row>
     <row r="44" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I44" s="31"/>
+      <c r="I44" s="12"/>
       <c r="R44" t="s">
         <v>34</v>
       </c>
-      <c r="T44" s="31"/>
+      <c r="T44" s="12"/>
     </row>
     <row r="45" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I45" s="31"/>
+      <c r="I45" s="12"/>
       <c r="R45" t="s">
         <v>35</v>
       </c>
-      <c r="T45" s="31"/>
+      <c r="T45" s="12"/>
     </row>
     <row r="46" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I46" s="31"/>
+      <c r="I46" s="12"/>
       <c r="R46" t="s">
         <v>36</v>
       </c>
-      <c r="T46" s="31"/>
+      <c r="T46" s="12"/>
     </row>
     <row r="47" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I47" s="31"/>
+      <c r="I47" s="12"/>
       <c r="R47" t="s">
         <v>37</v>
       </c>
-      <c r="T47" s="31"/>
+      <c r="T47" s="12"/>
     </row>
     <row r="48" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I48" s="31"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28" t="s">
+      <c r="I48" s="12"/>
+      <c r="Q48" t="s">
         <v>39</v>
       </c>
       <c r="R48" t="s">
         <v>38</v>
       </c>
-      <c r="T48" s="31"/>
+      <c r="T48" s="12"/>
     </row>
     <row r="49" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I49" s="31"/>
-      <c r="Q49" s="30">
-        <v>7</v>
-      </c>
-      <c r="R49" s="30" t="s">
+      <c r="I49" s="12"/>
+      <c r="Q49" s="9">
+        <v>7</v>
+      </c>
+      <c r="R49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T49" s="31"/>
+      <c r="T49" s="12"/>
     </row>
     <row r="50" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I50" s="31"/>
+      <c r="I50" s="12"/>
       <c r="L50" t="s">
         <v>45</v>
       </c>
@@ -1384,13 +1357,13 @@
       <c r="O50" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="T50" s="31"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="T50" s="12"/>
     </row>
     <row r="51" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I51" s="31"/>
+      <c r="I51" s="12"/>
       <c r="L51" t="s">
         <v>25</v>
       </c>
@@ -1406,17 +1379,17 @@
       <c r="R51" t="s">
         <v>41</v>
       </c>
-      <c r="T51" s="31"/>
+      <c r="T51" s="12"/>
     </row>
     <row r="52" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I52" s="31"/>
-      <c r="K52" s="32" t="s">
+      <c r="I52" s="12"/>
+      <c r="K52" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T52" s="31"/>
+      <c r="T52" s="12"/>
     </row>
     <row r="53" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I53" s="31"/>
+      <c r="I53" s="12"/>
       <c r="K53">
         <v>18</v>
       </c>
@@ -1426,25 +1399,25 @@
       <c r="M53" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="29">
+      <c r="N53" s="6">
         <v>-8</v>
       </c>
-      <c r="O53" s="29">
-        <v>11</v>
-      </c>
-      <c r="P53" s="29" t="s">
+      <c r="O53" s="6">
+        <v>11</v>
+      </c>
+      <c r="P53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q53" s="9">
         <v>8</v>
       </c>
-      <c r="R53" s="30">
-        <v>7</v>
-      </c>
-      <c r="T53" s="31"/>
+      <c r="R53" s="9">
+        <v>7</v>
+      </c>
+      <c r="T53" s="12"/>
     </row>
     <row r="54" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I54" s="31"/>
+      <c r="I54" s="12"/>
       <c r="K54">
         <v>7</v>
       </c>
@@ -1454,116 +1427,202 @@
       <c r="M54" t="s">
         <v>47</v>
       </c>
-      <c r="N54" s="29">
-        <v>7</v>
-      </c>
-      <c r="O54" s="29">
+      <c r="N54" s="6">
+        <v>7</v>
+      </c>
+      <c r="O54" s="6">
         <v>-11</v>
       </c>
-      <c r="P54" s="29" t="s">
+      <c r="P54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q54" s="30">
-        <v>11</v>
-      </c>
-      <c r="R54" s="30">
-        <v>11</v>
-      </c>
-      <c r="T54" s="31"/>
+      <c r="Q54" s="9">
+        <v>11</v>
+      </c>
+      <c r="R54" s="9">
+        <v>11</v>
+      </c>
+      <c r="T54" s="12"/>
     </row>
     <row r="55" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I55" s="31"/>
-      <c r="L55" s="32" t="s">
+      <c r="I55" s="12"/>
+      <c r="L55" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="T55" s="31"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="T55" s="12"/>
     </row>
     <row r="56" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I56" s="31"/>
-      <c r="K56" s="35" t="s">
+      <c r="I56" s="12"/>
+      <c r="K56" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="19">
         <v>22</v>
       </c>
-      <c r="M56" s="36">
+      <c r="M56" s="19">
         <v>25</v>
       </c>
       <c r="N56" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="34">
-        <v>7</v>
-      </c>
-      <c r="P56" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q56" s="9">
+      <c r="O56" s="22">
+        <v>7</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="8">
         <v>18</v>
       </c>
-      <c r="R56" s="9">
-        <v>11</v>
-      </c>
-      <c r="T56" s="31"/>
+      <c r="R56" s="8">
+        <v>11</v>
+      </c>
+      <c r="T56" s="12"/>
     </row>
     <row r="57" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I57" s="31"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36">
-        <v>23</v>
-      </c>
-      <c r="M57" s="36">
+      <c r="I57" s="12"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="19">
+        <v>23</v>
+      </c>
+      <c r="M57" s="19">
         <v>1</v>
       </c>
       <c r="N57" t="s">
         <v>24</v>
       </c>
-      <c r="O57" s="34"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="9">
-        <v>7</v>
-      </c>
-      <c r="R57" s="9">
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="8">
+        <v>7</v>
+      </c>
+      <c r="R57" s="8">
         <v>15</v>
       </c>
-      <c r="T57" s="31"/>
+      <c r="T57" s="12"/>
     </row>
     <row r="58" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I58" s="31"/>
-      <c r="T58" s="31"/>
+      <c r="I58" s="12"/>
+      <c r="T58" s="12"/>
     </row>
     <row r="59" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I59" s="31"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37" t="s">
+      <c r="I59" s="12"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T59" s="31"/>
+      <c r="T59" s="12"/>
     </row>
     <row r="60" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+    </row>
+    <row r="62" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="K63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="13">
+        <v>18</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="6">
+        <v>330</v>
+      </c>
+      <c r="P63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="9">
+        <v>22</v>
+      </c>
+      <c r="S63" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="K64" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="13">
+        <v>7</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="6">
+        <v>345</v>
+      </c>
+      <c r="P64" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="9">
+        <v>23</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+    </row>
+    <row r="67" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="O67" s="10"/>
+    </row>
+    <row r="69" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="O69" s="10"/>
+    </row>
+    <row r="71" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="O71" s="10"/>
+    </row>
+    <row r="73" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="O73" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
